--- a/1.0/KTH/KTH SEDS course and books.xlsx
+++ b/1.0/KTH/KTH SEDS course and books.xlsx
@@ -16,74 +16,397 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>course</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>books</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>web site</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2G1522 Modern Methods in Software Engineering
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Object-Oriented Software Engineering: Using UML, Patterns and Java: International Edition, 2/E, Bernd Bruegge, Allen H. Dutoit, 
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t>ID2201 Distributed systems(Basic)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.it.kth.se/courses/2G1509/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.it.kth.se/courses/2G1524/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.imit.kth.se/courses/2G1522/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.it.kth.se/courses/2G1529/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.it.kth.se/courses/2G1523/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.it.kth.se/courses/2G1513/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.it.kth.se/courses/2G1526/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://dsv.su.se/courses/2I2126/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.it.kth.se/courses/2G1515/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Object-Oriented Software Engineering: Using UML, Patterns and Java: International Edition, 2/E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, Bernd Bruegge, Allen H. Dutoit, 
 ISBN: 0131911791, Publisher: Prentice Hall, Copyright: 2004, Format: Paper; 800 pp Published: 16 Oct 2003
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID2201 Distributed systems(Basic)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Distributed Systems - Concepts and Design
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Distributed Systems - Concepts and Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 Georgis Coulouris, Jean Dollimore and Tim Kindberg, fourth edition </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.it.kth.se/courses/2G1509/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2G1524 Distributed Artificial Intelligence and Intelligent Agents</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.it.kth.se/courses/2G1524/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.imit.kth.se/courses/2G1522/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M. J. Wooldridge. An Introduction to Multi-Agent Systems, John Wiley &amp; Sons, 2002.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan Graba, An Introduction to Network Programming with Java, Addison-Wesley, 2003 ( ISBN: 0-321-11614-3)
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">M. J. Wooldridge. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>An Introduction to Multi-Agent Systems</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, John Wiley &amp; Sons, 2002.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jan Graba, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>An Introduction to Network Programming with Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, Addison-Wesley, 2003 ( ISBN: 0-321-11614-3)
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Elliotte Rusty Harold, Java Network Programming, 3rd Edition , O'Reilly &amp; Ass., Inc., 3rd Edition October 2004 (ISBN: 0-596-00721-3) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2G1529 Network Programming with Java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.it.kth.se/courses/2G1529/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Elliotte Rusty Harold, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Java Network Programming, 3rd Edition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> , O'Reilly &amp; Ass., Inc., 3rd Edition October 2004 (ISBN: 0-596-00721-3) </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Stive Graham, Doug Davis, Simeon Simeonov, Glen Daniels, Peter Brittenham, Yuici Nakamura, Paul Fremantle, Dieter König and Claudia Zentner. "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Building Web Services with Java: Making sense of XML, SOAP, WSDL and UDDI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>", Second Edition, Sams Publishing, ISBN 0-672-32641-8</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Reliable Distributed Programming</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF000066"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Rachid Guerraoui and Luis Rodrigues</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF000066"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Introduction to Distributed Algorithms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Gerard Tel 
+September 2000 Addison &amp; Wesley 
+ISBN 0 521 79483 8 
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Keri E. Pearlson, Carol. S. Saunders, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Managing and Using Information Systems. A Strategic Approach, 3ed.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, John Wiley &amp; Sons, 2006
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Efraim Turban, Dorothy Leidner, Ephraim McLean, James Wetherbe, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Information Technology for Management, 5th ed.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, John Wiley &amp; Sons, 2006</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IV2031 Strategic Management of IT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Home Page Of Course</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Course</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Textbook For The Course</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ID2207 Modern Methods in Software Engineering
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID2209 Distributed Artificial Intelligence and Intelligent Agents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID2208 Programming Web Services</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID2212 Network Programming with Java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ID2210 Distributed Computing, Peer-to-Peer and GRIDS
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ID2203 Distributed Systems Advanced Course </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ID2204 Constraint Programming </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is just a personal statistics. To find the latest news please visit the courses' homepages.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -91,7 +414,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,10 +442,55 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color rgb="FF000066"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,7 +501,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -141,6 +509,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -151,21 +548,45 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -462,89 +883,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="54.125" customWidth="1"/>
+    <col min="1" max="1" width="27.375" customWidth="1"/>
+    <col min="2" max="2" width="57.75" customWidth="1"/>
     <col min="3" max="3" width="40.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="87.75" customHeight="1" thickBot="1">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="53.25" customHeight="1" thickBot="1">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="33.75" thickBot="1">
+      <c r="A4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="87.75" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="5" spans="1:8" ht="49.5">
+      <c r="A5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="53.25" customHeight="1">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="33.75" thickBot="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="83.25" thickBot="1">
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="8" spans="1:8" ht="48" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+    </row>
+    <row r="9" spans="1:8" ht="70.5" customHeight="1" thickBot="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="38.25" customHeight="1" thickBot="1">
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27">
-      <c r="A4" s="1" t="s">
+    <row r="11" spans="1:8" ht="36" customHeight="1" thickBot="1">
+      <c r="A11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="66">
+      <c r="A12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="54">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="40.5">
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
+    </row>
+    <row r="13" spans="1:8" ht="50.25" thickBot="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.5">
+      <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
     <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="C2" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C10" r:id="rId5"/>
+    <hyperlink ref="C12" r:id="rId6"/>
+    <hyperlink ref="C11" r:id="rId7"/>
+    <hyperlink ref="C2" r:id="rId8"/>
+    <hyperlink ref="C7" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId5"/>
+  <pageSetup paperSize="8" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId10"/>
 </worksheet>
 </file>
 
